--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1421.985475681375</v>
+        <v>1421.985475681497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10680607.30154017</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>24956239.9257659</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1207673.542341369</v>
+        <v>2869331.327443741</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8526,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,22 +9319,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,13 +9793,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9811,10 +9811,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,19 +11215,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22568,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22644,34 +22644,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22726,28 +22726,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22805,31 +22805,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -23042,31 +23042,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23118,34 +23118,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23200,28 +23200,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23753,31 +23753,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23829,13 +23829,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>61.18167021676314</v>
@@ -23844,19 +23844,19 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23911,22 +23911,22 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -23990,31 +23990,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24251,7 +24251,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24303,10 +24303,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24324,13 +24324,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24385,13 +24385,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -24403,10 +24403,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24464,7 +24464,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -24476,19 +24476,19 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24540,13 +24540,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>61.18167021676314</v>
@@ -24555,19 +24555,19 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24622,28 +24622,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24701,7 +24701,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>135.370731907559</v>
@@ -24716,16 +24716,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24777,16 +24777,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24795,16 +24795,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24859,28 +24859,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24938,13 +24938,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
@@ -24962,7 +24962,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25096,28 +25096,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25199,7 +25199,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25333,13 +25333,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
@@ -25348,13 +25348,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25412,7 +25412,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25433,10 +25433,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25570,28 +25570,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25649,7 +25649,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25673,7 +25673,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25725,10 +25725,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25749,10 +25749,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25807,19 +25807,19 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
@@ -25828,7 +25828,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25910,7 +25910,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -26044,7 +26044,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26065,7 +26065,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>254093.6190439003</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.504219633527099e-12</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139180.5474022255</v>
+        <v>338431.1643343469</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>139180.5474022255</v>
+        <v>290178.0032655727</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>139180.5474022255</v>
+        <v>180453.5720524325</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>139180.5474022255</v>
+        <v>277762.451381918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139180.5474022255</v>
+        <v>287189.5371173327</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139180.5474022255</v>
+        <v>230276.0365066375</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>139180.5474022255</v>
+        <v>168561.0844859022</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139180.5474022255</v>
+        <v>214165.7668539766</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139180.5474022255</v>
+        <v>202962.3979404092</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139180.5474022255</v>
+        <v>152491.9710779519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>54448.63265226434</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
         <v>37958.33110969787</v>
@@ -26326,34 +26326,34 @@
         <v>37958.33110969787</v>
       </c>
       <c r="G2" t="n">
-        <v>37958.33110969787</v>
+        <v>80654.89188086678</v>
       </c>
       <c r="H2" t="n">
-        <v>37958.33110969787</v>
+        <v>70314.92879470087</v>
       </c>
       <c r="I2" t="n">
-        <v>37958.33110969787</v>
+        <v>46802.55067759936</v>
       </c>
       <c r="J2" t="n">
-        <v>37958.33110969787</v>
+        <v>67654.45339106057</v>
       </c>
       <c r="K2" t="n">
-        <v>37958.33110969787</v>
+        <v>69674.5431915066</v>
       </c>
       <c r="L2" t="n">
-        <v>37958.33110969787</v>
+        <v>57478.79306064335</v>
       </c>
       <c r="M2" t="n">
-        <v>37958.33110969787</v>
+        <v>44254.16048477147</v>
       </c>
       <c r="N2" t="n">
-        <v>37958.33110969787</v>
+        <v>54026.59242078742</v>
       </c>
       <c r="O2" t="n">
-        <v>37958.33110969787</v>
+        <v>51625.87051073727</v>
       </c>
       <c r="P2" t="n">
-        <v>37958.33110969787</v>
+        <v>40810.77904021066</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>54448.63265226434</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>42696.56077116887</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>32356.59768500299</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8844.219567901497</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>29696.1222813627</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>31716.21208180872</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>19520.46195094548</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6295.829375073603</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16068.26131108955</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13667.5394010394</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2852.447930512798</v>
       </c>
     </row>
     <row r="5">
@@ -26528,37 +26528,37 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-98753.2809953105</v>
+        <v>-98753.28099531044</v>
       </c>
       <c r="F6" t="n">
         <v>34346.71900468954</v>
       </c>
       <c r="G6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468958</v>
       </c>
       <c r="H6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468956</v>
       </c>
       <c r="I6" t="n">
         <v>34346.71900468954</v>
       </c>
       <c r="J6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468955</v>
       </c>
       <c r="K6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468956</v>
       </c>
       <c r="L6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468956</v>
       </c>
       <c r="M6" t="n">
         <v>34346.71900468954</v>
       </c>
       <c r="N6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468955</v>
       </c>
       <c r="O6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468956</v>
       </c>
       <c r="P6" t="n">
         <v>34346.71900468954</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1421.985475681497</v>
+        <v>15148.34361309966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10680607.30154017</v>
+        <v>10715982.79239035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24956239.9257659</v>
+        <v>24991615.41661607</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2869331.327443741</v>
+        <v>2846026.81069082</v>
       </c>
     </row>
     <row r="11">
@@ -9246,7 +9248,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9325,22 +9327,22 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9805,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9814,7 +9816,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,13 +10193,13 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10273,7 +10275,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>92.09541281912071</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23838,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
@@ -23850,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23917,22 +23919,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23990,25 +23992,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24227,19 +24229,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -24248,7 +24250,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24303,10 +24305,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24315,19 +24317,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24397,7 +24399,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>96.22962838366004</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24467,10 +24469,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -24479,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -24555,16 +24557,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24701,10 +24703,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24716,13 +24718,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24783,13 +24785,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
@@ -24865,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25965,7 +25967,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25989,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338431.1643343469</v>
+        <v>343164.7583134145</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290178.0032655727</v>
+        <v>184686.4333777769</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>180453.5720524325</v>
+        <v>276330.6031230553</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>277762.451381918</v>
+        <v>283628.1198608144</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>287189.5371173327</v>
+        <v>222011.3099785486</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>230276.0365066375</v>
+        <v>251224.5242917154</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152491.9710779519</v>
+        <v>170974.1431957436</v>
       </c>
     </row>
   </sheetData>
@@ -26326,22 +26328,22 @@
         <v>37958.33110969787</v>
       </c>
       <c r="G2" t="n">
-        <v>80654.89188086678</v>
+        <v>81669.23344780983</v>
       </c>
       <c r="H2" t="n">
-        <v>70314.92879470087</v>
+        <v>47709.59239017319</v>
       </c>
       <c r="I2" t="n">
-        <v>46802.55067759936</v>
+        <v>67347.62876416139</v>
       </c>
       <c r="J2" t="n">
-        <v>67654.45339106057</v>
+        <v>68911.38235082409</v>
       </c>
       <c r="K2" t="n">
-        <v>69674.5431915066</v>
+        <v>55707.78023319571</v>
       </c>
       <c r="L2" t="n">
-        <v>57478.79306064335</v>
+        <v>61967.75472887429</v>
       </c>
       <c r="M2" t="n">
         <v>44254.16048477147</v>
@@ -26353,7 +26355,7 @@
         <v>51625.87051073727</v>
       </c>
       <c r="P2" t="n">
-        <v>40810.77904021066</v>
+        <v>44771.24449402319</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
         <v>54448.63265226434</v>
       </c>
       <c r="D4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26430,22 +26432,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>42696.56077116887</v>
+        <v>43710.90233811193</v>
       </c>
       <c r="H4" t="n">
-        <v>32356.59768500299</v>
+        <v>9751.26128047533</v>
       </c>
       <c r="I4" t="n">
-        <v>8844.219567901497</v>
+        <v>29389.29765446353</v>
       </c>
       <c r="J4" t="n">
-        <v>29696.1222813627</v>
+        <v>30953.0512411262</v>
       </c>
       <c r="K4" t="n">
-        <v>31716.21208180872</v>
+        <v>17749.44912349784</v>
       </c>
       <c r="L4" t="n">
-        <v>19520.46195094548</v>
+        <v>24009.42361917641</v>
       </c>
       <c r="M4" t="n">
         <v>6295.829375073603</v>
@@ -26457,7 +26459,7 @@
         <v>13667.5394010394</v>
       </c>
       <c r="P4" t="n">
-        <v>2852.447930512798</v>
+        <v>6812.913384325325</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-98753.28099531044</v>
+        <v>-98753.2809953105</v>
       </c>
       <c r="F6" t="n">
         <v>34346.71900468954</v>
@@ -26537,19 +26539,19 @@
         <v>34346.71900468958</v>
       </c>
       <c r="H6" t="n">
+        <v>34346.71900468953</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34346.71900468953</v>
+      </c>
+      <c r="J6" t="n">
         <v>34346.71900468956</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>34346.71900468954</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>34346.71900468955</v>
-      </c>
-      <c r="K6" t="n">
-        <v>34346.71900468956</v>
-      </c>
-      <c r="L6" t="n">
-        <v>34346.71900468956</v>
       </c>
       <c r="M6" t="n">
         <v>34346.71900468954</v>
@@ -26558,10 +26560,10 @@
         <v>34346.71900468955</v>
       </c>
       <c r="O6" t="n">
-        <v>34346.71900468956</v>
+        <v>34346.71900468955</v>
       </c>
       <c r="P6" t="n">
-        <v>34346.71900468954</v>
+        <v>34346.71900468955</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15148.34361309966</v>
+        <v>-109961.5551843769</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10715982.79239035</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24991615.41661607</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2846026.81069082</v>
+        <v>4228471.607922704</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
         <v>38.66169381481656</v>
@@ -9327,16 +9327,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -9652,10 +9652,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
@@ -9804,19 +9804,19 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9883,16 +9883,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -9959,22 +9959,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,16 +10193,16 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
         <v>57.81213424001893</v>
@@ -10275,7 +10275,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
         <v>92.09541281912071</v>
@@ -10357,16 +10357,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,10 +10752,10 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
@@ -10825,22 +10825,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,22 +11141,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,28 +11299,28 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22883,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23281,31 +23281,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,34 +23357,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,31 +23518,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,34 +23594,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,28 +23676,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -23919,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24068,34 +24068,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,28 +24150,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24232,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24244,10 +24244,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24305,22 +24305,22 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -24396,19 +24396,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24475,16 +24475,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24551,22 +24551,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24703,28 +24703,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24785,16 +24785,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24867,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24949,16 +24949,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25016,34 +25016,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25177,28 +25177,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25253,34 +25253,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25344,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25417,22 +25417,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25490,34 +25490,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,22 +25733,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25891,28 +25891,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,31 +25964,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26049,22 +26049,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>254093.6190439003</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139180.5474022255</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139180.5474022255</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>343164.7583134145</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>184686.4333777769</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>276330.6031230553</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>283628.1198608144</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>222011.3099785486</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>251224.5242917154</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>168561.0844859022</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>214165.7668539766</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>202962.3979404092</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170974.1431957436</v>
+        <v>362163.5874148248</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
-        <v>54448.63265226434</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
         <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
-        <v>37958.33110969787</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="F2" t="n">
-        <v>37958.33110969787</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="G2" t="n">
-        <v>81669.23344780983</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="H2" t="n">
-        <v>47709.59239017319</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="I2" t="n">
-        <v>67347.62876416139</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="J2" t="n">
-        <v>68911.38235082409</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="K2" t="n">
-        <v>55707.78023319571</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="L2" t="n">
-        <v>61967.75472887429</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="M2" t="n">
-        <v>44254.16048477147</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="N2" t="n">
-        <v>54026.59242078742</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="O2" t="n">
-        <v>51625.87051073727</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="P2" t="n">
-        <v>44771.24449402319</v>
+        <v>85740.41111239771</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>54448.63265226434</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D4" t="n">
         <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>43710.90233811193</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>9751.26128047533</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>29389.29765446353</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>30953.0512411262</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>17749.44912349784</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>24009.42361917641</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>6295.829375073603</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>16068.26131108955</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>13667.5394010394</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>6812.913384325325</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="E6" t="n">
-        <v>-98753.2809953105</v>
+        <v>-113563.2978344244</v>
       </c>
       <c r="F6" t="n">
-        <v>34346.71900468954</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="G6" t="n">
-        <v>34346.71900468958</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="H6" t="n">
-        <v>34346.71900468953</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="I6" t="n">
-        <v>34346.71900468953</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="J6" t="n">
-        <v>34346.71900468956</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="K6" t="n">
-        <v>34346.71900468954</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="L6" t="n">
-        <v>34346.71900468955</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="M6" t="n">
-        <v>34346.71900468954</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="N6" t="n">
-        <v>34346.71900468955</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="O6" t="n">
-        <v>34346.71900468955</v>
+        <v>19536.70216557567</v>
       </c>
       <c r="P6" t="n">
-        <v>34346.71900468955</v>
+        <v>19536.70216557567</v>
       </c>
     </row>
   </sheetData>
